--- a/biology/Botanique/Trachelium_caeruleum/Trachelium_caeruleum.xlsx
+++ b/biology/Botanique/Trachelium_caeruleum/Trachelium_caeruleum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachelium caeruleum, le Trachélium bleu, est une plante herbacée de la famille des Campanulacées d'origine méditerranéenne.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trachelium azureum
-Trachelium alteratum[1]</t>
+Trachelium alteratum</t>
         </is>
       </c>
     </row>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plante vivace, à la tige pourpre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plante vivace, à la tige pourpre.
 Inflorescence en corymbe dense.</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans les zones rocheuses humides, au bord des cours d'eau aux Açores, Madère, Espagne, Portugal, Nord de l’Afrique, et sud de la France.
 </t>
@@ -604,7 +622,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trachélium bleu est cultivé à des fins ornementales. Les cultivars sont généralement annuels.
 </t>
